--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2473307.466680089</v>
+        <v>-2474105.834117906</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.6938579839128</v>
+        <v>261.6938579839127</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.9625436714603</v>
       </c>
       <c r="D11" t="n">
-        <v>186.9828205652503</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.2713114730586</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.306137003043</v>
+        <v>292.3061370030429</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>170.9262473249732</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772387</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360341</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.6396657772424</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575977</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.5106695150371</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.5075649930723</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.8390471236871</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.6645197437535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.34957360286256</v>
+        <v>43.34957360286253</v>
       </c>
       <c r="C12" t="n">
-        <v>49.00303191991873</v>
+        <v>49.0030319199187</v>
       </c>
       <c r="D12" t="n">
-        <v>24.0898715671633</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>34.01088169969157</v>
+        <v>34.01088169969154</v>
       </c>
       <c r="F12" t="n">
-        <v>21.48368007606703</v>
+        <v>118.2151163116807</v>
       </c>
       <c r="G12" t="n">
-        <v>20.43669615393453</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H12" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S12" t="n">
-        <v>41.71077449716831</v>
+        <v>41.71077449716828</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2479873695406</v>
+        <v>75.22543536205833</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6386589300076</v>
+        <v>102.6161069225253</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.8861790321728</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1515,7 +1515,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.64859941110373</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.06113948320154</v>
+        <v>58.06113948320152</v>
       </c>
       <c r="C13" t="n">
-        <v>45.31400092372007</v>
+        <v>45.31400092372004</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9830145070371</v>
+        <v>26.98301450703707</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95207216571691</v>
+        <v>20.82378795360046</v>
       </c>
       <c r="F13" t="n">
-        <v>20.00818519020478</v>
+        <v>24.13646940232221</v>
       </c>
       <c r="G13" t="n">
-        <v>45.63105716341552</v>
+        <v>45.63105716341549</v>
       </c>
       <c r="H13" t="n">
-        <v>37.51344541500134</v>
+        <v>37.51344541500131</v>
       </c>
       <c r="I13" t="n">
-        <v>24.63943984930674</v>
+        <v>24.63943984930671</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.7580875799905</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S13" t="n">
-        <v>96.22237133206656</v>
+        <v>96.22237133206653</v>
       </c>
       <c r="T13" t="n">
         <v>105.301636831036</v>
@@ -1588,13 +1588,13 @@
         <v>130.9137990594569</v>
       </c>
       <c r="W13" t="n">
-        <v>164.0700248799333</v>
+        <v>164.0700248799332</v>
       </c>
       <c r="X13" t="n">
         <v>104.117807924827</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.72612186028596</v>
+        <v>96.72612186028593</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.2893831425849</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714605</v>
+        <v>244.9625436714604</v>
       </c>
       <c r="D14" t="n">
-        <v>118.7772311932987</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478052</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.306137003043</v>
       </c>
       <c r="H14" t="n">
-        <v>210.7336715177292</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772396</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360349</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724248</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.4131254575978</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5106695150372</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>248.8390471236872</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.6645197437535</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>49.00303191991875</v>
       </c>
       <c r="D15" t="n">
-        <v>61.33264177074356</v>
+        <v>24.08987156716333</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01088169969165</v>
+        <v>34.01088169969159</v>
       </c>
       <c r="F15" t="n">
-        <v>21.48368007606712</v>
+        <v>21.48368007606706</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71918251221738</v>
+        <v>13.71918251221732</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>51.52126922895032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7333265046506</v>
+        <v>41.71077449716834</v>
       </c>
       <c r="T15" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U15" t="n">
-        <v>102.6161069225254</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V15" t="n">
-        <v>109.8861790321729</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.9667947425178</v>
       </c>
       <c r="X15" t="n">
-        <v>82.43907760099609</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.64859941110379</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320163</v>
+        <v>58.06113948320157</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372016</v>
+        <v>45.3140009237201</v>
       </c>
       <c r="D16" t="n">
-        <v>26.98301450703718</v>
+        <v>26.98301450703713</v>
       </c>
       <c r="E16" t="n">
-        <v>24.952072165717</v>
+        <v>24.95207216571694</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232232</v>
+        <v>24.13646940232226</v>
       </c>
       <c r="G16" t="n">
-        <v>45.6310571634156</v>
+        <v>45.63105716341555</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500143</v>
+        <v>37.51344541500137</v>
       </c>
       <c r="I16" t="n">
-        <v>24.63943984930682</v>
+        <v>24.63943984930676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999059</v>
+        <v>40.75808757999054</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206664</v>
+        <v>92.09408711994936</v>
       </c>
       <c r="T16" t="n">
-        <v>101.173352618917</v>
+        <v>105.301636831036</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0168467603524</v>
+        <v>164.0168467603523</v>
       </c>
       <c r="V16" t="n">
-        <v>130.913799059457</v>
+        <v>130.9137990594569</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799334</v>
+        <v>164.0700248799333</v>
       </c>
       <c r="X16" t="n">
-        <v>104.1178079248271</v>
+        <v>104.117807924827</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028604</v>
+        <v>96.72612186028599</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>160.4576875370722</v>
       </c>
       <c r="C17" t="n">
-        <v>143.7263732246198</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D17" t="n">
         <v>133.3460103002755</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.17695501075711</v>
+        <v>28.1769550107571</v>
       </c>
       <c r="V17" t="n">
         <v>105.2744990681965</v>
       </c>
       <c r="W17" t="n">
-        <v>127.2713945462319</v>
+        <v>127.2713945462317</v>
       </c>
       <c r="X17" t="n">
         <v>147.6028766768465</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969129</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.58380432185044</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.379936475684765</v>
+        <v>1.379936475684737</v>
       </c>
       <c r="V18" t="n">
-        <v>76.45246993962259</v>
+        <v>8.650008585332245</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.73062429567716</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>48.7865284409926</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.7611526141917</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.065466384195429</v>
+        <v>4.065466384195402</v>
       </c>
       <c r="U19" t="n">
-        <v>62.78067631351171</v>
+        <v>62.78067631351168</v>
       </c>
       <c r="V19" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261627</v>
       </c>
       <c r="W19" t="n">
-        <v>62.83385443309268</v>
+        <v>62.83385443309265</v>
       </c>
       <c r="X19" t="n">
-        <v>2.881637477986402</v>
+        <v>2.881637477986374</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>160.4576875370722</v>
       </c>
       <c r="C20" t="n">
-        <v>143.7263732246198</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D20" t="n">
         <v>133.3460103002755</v>
@@ -2096,7 +2096,7 @@
         <v>191.0699665562024</v>
       </c>
       <c r="H20" t="n">
-        <v>109.4975010708885</v>
+        <v>109.4975010708891</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075711</v>
+        <v>28.1769550107571</v>
       </c>
       <c r="V20" t="n">
         <v>105.2744990681965</v>
@@ -2147,7 +2147,7 @@
         <v>147.6028766768465</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969129</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>208.6497405879901</v>
+        <v>1.379936475684737</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>26.73062429567716</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>87.70765297983669</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.6536091708978</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.60213120438719</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.065466384195429</v>
+        <v>4.065466384195402</v>
       </c>
       <c r="U22" t="n">
-        <v>62.78067631351171</v>
+        <v>62.78067631351168</v>
       </c>
       <c r="V22" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261627</v>
       </c>
       <c r="W22" t="n">
-        <v>62.83385443309268</v>
+        <v>90.94139787638659</v>
       </c>
       <c r="X22" t="n">
-        <v>2.881637477986402</v>
+        <v>2.881637477986374</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.17695501075711</v>
+        <v>28.17695501075713</v>
       </c>
       <c r="V23" t="n">
         <v>105.2744990681965</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>84.22897390823582</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6386589300076</v>
+        <v>1.379936475684765</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>212.1942044593215</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2463,7 +2463,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28.10754344329385</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.6536091708978</v>
       </c>
       <c r="H25" t="n">
-        <v>159.5359974224836</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>36.22515519170811</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.065466384195429</v>
+        <v>4.06546638419543</v>
       </c>
       <c r="U25" t="n">
         <v>62.78067631351171</v>
@@ -2558,7 +2558,7 @@
         <v>224.8735010598801</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E26" t="n">
         <v>241.0064411362249</v>
@@ -2567,13 +2567,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2170943914628</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H26" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83115309614362</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202315</v>
+        <v>51.76539129202312</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566215</v>
+        <v>78.55062316566212</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3240828460175</v>
+        <v>109.3240828460174</v>
       </c>
       <c r="V26" t="n">
         <v>186.4216269034568</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y26" t="n">
         <v>244.5754771321733</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.62173188558805</v>
+        <v>21.62173188558803</v>
       </c>
       <c r="T27" t="n">
-        <v>142.229210082032</v>
+        <v>142.2292100820324</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386589300076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.97209687162129</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C28" t="n">
-        <v>25.22495831213982</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D28" t="n">
-        <v>6.893971895456843</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E28" t="n">
-        <v>4.863029554136659</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F28" t="n">
-        <v>4.04742679074198</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G28" t="n">
-        <v>25.54201455183527</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H28" t="n">
-        <v>17.42440280342109</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726481</v>
+        <v>4.550397237726454</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841025</v>
+        <v>20.66904496841023</v>
       </c>
       <c r="S28" t="n">
-        <v>76.1333287204863</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T28" t="n">
-        <v>85.21259421945577</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V28" t="n">
         <v>110.8247564478766</v>
@@ -2776,10 +2776,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X28" t="n">
-        <v>84.02876531324674</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.6370792487057</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2170943914627</v>
+        <v>272.2170943914626</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6446289061489</v>
+        <v>190.6446289061488</v>
       </c>
       <c r="I29" t="n">
         <v>42.83115309614357</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.76539129202309</v>
+        <v>51.76539129202308</v>
       </c>
       <c r="T29" t="n">
-        <v>78.55062316566209</v>
+        <v>78.5506231656621</v>
       </c>
       <c r="U29" t="n">
         <v>109.3240828460174</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>121.4603589685054</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>31.9021642163225</v>
+        <v>21.621731885588</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2479873695406</v>
+        <v>55.13639275047804</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6386589300076</v>
+        <v>82.52706431094504</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2934,7 +2934,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>62.35003498941569</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2968,7 +2968,7 @@
         <v>17.42440280342104</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726424</v>
+        <v>4.550397237726425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.66904496841019</v>
+        <v>20.6690449684102</v>
       </c>
       <c r="S31" t="n">
         <v>76.13332872048625</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6048153723325</v>
+        <v>241.6048153723326</v>
       </c>
       <c r="C32" t="n">
         <v>224.8735010598801</v>
       </c>
       <c r="D32" t="n">
-        <v>214.4931381355358</v>
+        <v>214.4931381355359</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0064411362249</v>
+        <v>241.006441136225</v>
       </c>
       <c r="F32" t="n">
         <v>265.1822688614783</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2170943914626</v>
+        <v>272.2170943914628</v>
       </c>
       <c r="H32" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614356</v>
+        <v>42.83115309614365</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202309</v>
+        <v>51.76539129202317</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566209</v>
+        <v>78.55062316566219</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3240828460174</v>
+        <v>109.3240828460175</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4216269034568</v>
+        <v>186.4216269034569</v>
       </c>
       <c r="W32" t="n">
-        <v>208.418522381492</v>
+        <v>208.4185223814921</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7500045121068</v>
+        <v>228.7500045121069</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5754771321732</v>
+        <v>244.5754771321733</v>
       </c>
     </row>
     <row r="33">
@@ -3117,10 +3117,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.394637464486806</v>
       </c>
       <c r="G33" t="n">
-        <v>9.87402091130531</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S33" t="n">
-        <v>21.621731885588</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T33" t="n">
-        <v>55.13639275047804</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6386589300076</v>
+        <v>92.40108522225047</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.97209687162123</v>
+        <v>37.97209687162132</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213976</v>
+        <v>25.22495831213985</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456787</v>
+        <v>6.893971895456872</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136602</v>
+        <v>4.863029554136688</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790741923</v>
+        <v>4.047426790742009</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183521</v>
+        <v>25.54201455183529</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342104</v>
+        <v>17.42440280342112</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726424</v>
+        <v>4.550397237726511</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841019</v>
+        <v>20.66904496841028</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048625</v>
+        <v>76.13332872048633</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945571</v>
+        <v>85.2125942194558</v>
       </c>
       <c r="U34" t="n">
-        <v>143.927804148772</v>
+        <v>143.9278041487721</v>
       </c>
       <c r="V34" t="n">
-        <v>110.8247564478766</v>
+        <v>110.8247564478767</v>
       </c>
       <c r="W34" t="n">
         <v>143.980982268353</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324668</v>
+        <v>84.02876531324677</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870565</v>
+        <v>76.63707924870573</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>193.6664712258006</v>
       </c>
       <c r="H35" t="n">
-        <v>112.0940057404867</v>
+        <v>112.0940057404868</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.77345968035529</v>
+        <v>30.77345968035533</v>
       </c>
       <c r="V35" t="n">
         <v>107.8710037377947</v>
@@ -3332,7 +3332,7 @@
         <v>150.1993813464447</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0248539665111</v>
+        <v>166.0248539665112</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3354,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>12.82346593053006</v>
+        <v>3.976441145282969</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>11.24651325493048</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>138.5669109768102</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.77306275168119</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.7786292662009</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.661971053793605</v>
+        <v>6.661971053793634</v>
       </c>
       <c r="U37" t="n">
-        <v>65.37718098310988</v>
+        <v>65.37718098310991</v>
       </c>
       <c r="V37" t="n">
-        <v>32.27413328221448</v>
+        <v>32.27413328221451</v>
       </c>
       <c r="W37" t="n">
-        <v>65.43035910269086</v>
+        <v>65.43035910269089</v>
       </c>
       <c r="X37" t="n">
-        <v>5.478142147584578</v>
+        <v>5.478142147584606</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>193.6664712258006</v>
       </c>
       <c r="H38" t="n">
-        <v>112.0940057404867</v>
+        <v>112.0940057404868</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.77345968035529</v>
+        <v>30.77345968035533</v>
       </c>
       <c r="V38" t="n">
         <v>107.8710037377947</v>
@@ -3569,7 +3569,7 @@
         <v>150.1993813464447</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0248539665111</v>
+        <v>166.0248539665112</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3588,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>10.50567637099735</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>8.847024785246706</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386589300076</v>
+        <v>3.976441145282969</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>189.4406003199945</v>
+        <v>6.661971053793634</v>
       </c>
       <c r="U40" t="n">
-        <v>65.37718098310988</v>
+        <v>65.37718098310991</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27413328221448</v>
+        <v>32.27413328221451</v>
       </c>
       <c r="W40" t="n">
-        <v>65.43035910269086</v>
+        <v>65.43035910269089</v>
       </c>
       <c r="X40" t="n">
-        <v>5.478142147584578</v>
+        <v>20.92021848258283</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>189.8394240803094</v>
       </c>
       <c r="C41" t="n">
-        <v>173.108109767857</v>
+        <v>173.1081097678569</v>
       </c>
       <c r="D41" t="n">
         <v>162.7277468435127</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363901</v>
+        <v>26.78523187363899</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399431</v>
+        <v>57.55869155399429</v>
       </c>
       <c r="V41" t="n">
         <v>134.6562356114337</v>
@@ -3806,7 +3806,7 @@
         <v>176.9846132200837</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8100858401502</v>
+        <v>192.8100858401501</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>159.9443374638736</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>129.8616548987897</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7417345196995</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
-        <v>3.371001458454964</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U42" t="n">
         <v>224.6386589300076</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846316</v>
+        <v>24.36793742846313</v>
       </c>
       <c r="T43" t="n">
-        <v>33.44720292743263</v>
+        <v>33.4472029274326</v>
       </c>
       <c r="U43" t="n">
-        <v>92.1624128567489</v>
+        <v>92.16241285674887</v>
       </c>
       <c r="V43" t="n">
-        <v>59.0593651558535</v>
+        <v>59.05936515585347</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632988</v>
+        <v>92.21559097632985</v>
       </c>
       <c r="X43" t="n">
-        <v>32.2633740212236</v>
+        <v>32.26337402122357</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668256</v>
+        <v>24.87168795668254</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.78523187363898</v>
+        <v>26.78523187363899</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55869155399428</v>
+        <v>57.55869155399429</v>
       </c>
       <c r="V44" t="n">
         <v>134.6562356114337</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.0218198993743</v>
       </c>
       <c r="T45" t="n">
-        <v>136.3928213578291</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386589300076</v>
+        <v>30.76167301892193</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>869.9296813094187</v>
+        <v>749.4392401482073</v>
       </c>
       <c r="C11" t="n">
-        <v>869.9296813094187</v>
+        <v>502.0023273487523</v>
       </c>
       <c r="D11" t="n">
-        <v>681.0581453849234</v>
+        <v>502.0023273487523</v>
       </c>
       <c r="E11" t="n">
-        <v>681.0581453849234</v>
+        <v>502.0023273487523</v>
       </c>
       <c r="F11" t="n">
-        <v>392.905305513147</v>
+        <v>502.0023273487523</v>
       </c>
       <c r="G11" t="n">
-        <v>97.64658126764905</v>
+        <v>206.7436031032545</v>
       </c>
       <c r="H11" t="n">
-        <v>97.64658126764905</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777311</v>
       </c>
       <c r="K11" t="n">
         <v>265.189808364687</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909473</v>
       </c>
       <c r="N11" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O11" t="n">
         <v>1461.259986043749</v>
@@ -5060,31 +5060,31 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q11" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R11" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S11" t="n">
-        <v>1631.96116510993</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T11" t="n">
-        <v>1532.325139072312</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U11" t="n">
-        <v>1401.604810327264</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="V11" t="n">
-        <v>1401.604810327264</v>
+        <v>1495.944765502421</v>
       </c>
       <c r="W11" t="n">
-        <v>1401.604810327264</v>
+        <v>1265.129043287197</v>
       </c>
       <c r="X11" t="n">
-        <v>1401.604810327264</v>
+        <v>1013.776470434988</v>
       </c>
       <c r="Y11" t="n">
-        <v>1134.266911596199</v>
+        <v>1013.776470434988</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>293.4526607536725</v>
+        <v>708.4742886422387</v>
       </c>
       <c r="C12" t="n">
-        <v>243.9546487133505</v>
+        <v>658.9762766019168</v>
       </c>
       <c r="D12" t="n">
-        <v>219.6214451101553</v>
+        <v>511.3879699608606</v>
       </c>
       <c r="E12" t="n">
-        <v>185.2670191508709</v>
+        <v>477.0335440015763</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5663322053486</v>
+        <v>357.6243356059392</v>
       </c>
       <c r="G12" t="n">
-        <v>142.9232047771319</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="H12" t="n">
-        <v>34.09082802752393</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="I12" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J12" t="n">
-        <v>42.76382301685726</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K12" t="n">
-        <v>227.0034110407616</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="L12" t="n">
-        <v>535.5858806794533</v>
+        <v>376.3939552696686</v>
       </c>
       <c r="M12" t="n">
-        <v>948.4872619277371</v>
+        <v>789.2953365179524</v>
       </c>
       <c r="N12" t="n">
-        <v>1370.361258768346</v>
+        <v>1118.578773562434</v>
       </c>
       <c r="O12" t="n">
-        <v>1704.541401376197</v>
+        <v>1452.758916170284</v>
       </c>
       <c r="P12" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q12" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R12" t="n">
-        <v>1704.541401376197</v>
+        <v>1626.542617113319</v>
       </c>
       <c r="S12" t="n">
-        <v>1662.409305924511</v>
+        <v>1584.410521661634</v>
       </c>
       <c r="T12" t="n">
-        <v>1463.168914642147</v>
+        <v>1508.425233417131</v>
       </c>
       <c r="U12" t="n">
-        <v>1236.26117834921</v>
+        <v>1404.772600162054</v>
       </c>
       <c r="V12" t="n">
-        <v>1002.009934874811</v>
+        <v>1293.776459725516</v>
       </c>
       <c r="W12" t="n">
-        <v>749.4954432081441</v>
+        <v>1041.261968058849</v>
       </c>
       <c r="X12" t="n">
-        <v>542.9685446137216</v>
+        <v>834.7350694644268</v>
       </c>
       <c r="Y12" t="n">
-        <v>337.2401088373721</v>
+        <v>752.2617367259382</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261.4051868299509</v>
+        <v>261.4051868299515</v>
       </c>
       <c r="C13" t="n">
-        <v>215.6334687251831</v>
+        <v>215.6334687251838</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3778985160548</v>
+        <v>188.3778985160554</v>
       </c>
       <c r="E13" t="n">
-        <v>163.1737852173508</v>
+        <v>167.3437692699944</v>
       </c>
       <c r="F13" t="n">
-        <v>142.9634971464369</v>
+        <v>142.9634971464366</v>
       </c>
       <c r="G13" t="n">
-        <v>96.8715202136937</v>
+        <v>96.87152021369363</v>
       </c>
       <c r="H13" t="n">
-        <v>58.97915110763174</v>
+        <v>58.9791511076317</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283541</v>
+        <v>83.45962932283543</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939543</v>
+        <v>216.7776820939544</v>
       </c>
       <c r="L13" t="n">
-        <v>409.3994443472053</v>
+        <v>409.3994443472054</v>
       </c>
       <c r="M13" t="n">
-        <v>616.5181956441181</v>
+        <v>616.5181956441184</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805968</v>
+        <v>826.7257971805973</v>
       </c>
       <c r="O13" t="n">
         <v>1014.771769283489</v>
       </c>
       <c r="P13" t="n">
-        <v>1169.890169899395</v>
+        <v>1169.890169899396</v>
       </c>
       <c r="Q13" t="n">
-        <v>1231.291889568486</v>
+        <v>1231.291889568487</v>
       </c>
       <c r="R13" t="n">
-        <v>1190.122104134152</v>
+        <v>1190.122104134153</v>
       </c>
       <c r="S13" t="n">
-        <v>1092.927789657317</v>
+        <v>1092.927789657318</v>
       </c>
       <c r="T13" t="n">
-        <v>986.5624999289981</v>
+        <v>986.5624999289986</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8889173427838</v>
+        <v>820.8889173427843</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766658</v>
+        <v>688.6527566766663</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181474</v>
+        <v>522.9254588181479</v>
       </c>
       <c r="X13" t="n">
-        <v>417.7559558637766</v>
+        <v>417.7559558637772</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0528024695484</v>
+        <v>320.052802469549</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>941.6556016012792</v>
+        <v>864.9393049442534</v>
       </c>
       <c r="C14" t="n">
-        <v>694.2186888018242</v>
+        <v>617.5023921447983</v>
       </c>
       <c r="D14" t="n">
-        <v>574.2416875964719</v>
+        <v>617.5023921447983</v>
       </c>
       <c r="E14" t="n">
-        <v>310.5088757300019</v>
+        <v>617.5023921447983</v>
       </c>
       <c r="F14" t="n">
-        <v>310.5088757300019</v>
+        <v>329.3495522730219</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5088757300019</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H14" t="n">
-        <v>97.64658126764914</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I14" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777311</v>
       </c>
       <c r="K14" t="n">
         <v>265.189808364687</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909471</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O14" t="n">
         <v>1461.259986043749</v>
@@ -5297,31 +5297,31 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q14" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R14" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S14" t="n">
-        <v>1631.96116510993</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T14" t="n">
-        <v>1532.325139072312</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U14" t="n">
-        <v>1401.604810327263</v>
+        <v>1573.821072631148</v>
       </c>
       <c r="V14" t="n">
-        <v>1193.008174453488</v>
+        <v>1573.821072631148</v>
       </c>
       <c r="W14" t="n">
-        <v>1193.008174453488</v>
+        <v>1573.821072631148</v>
       </c>
       <c r="X14" t="n">
-        <v>941.6556016012792</v>
+        <v>1322.468499778939</v>
       </c>
       <c r="Y14" t="n">
-        <v>941.6556016012792</v>
+        <v>1055.130601047875</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>338.708979528656</v>
+        <v>338.7089795286555</v>
       </c>
       <c r="C15" t="n">
-        <v>165.9558644504731</v>
+        <v>289.2109674883336</v>
       </c>
       <c r="D15" t="n">
-        <v>104.0037010456817</v>
+        <v>264.8777638851383</v>
       </c>
       <c r="E15" t="n">
-        <v>69.64927508639717</v>
+        <v>230.5233379258538</v>
       </c>
       <c r="F15" t="n">
-        <v>47.94858814087483</v>
+        <v>208.8226509803316</v>
       </c>
       <c r="G15" t="n">
-        <v>34.09082802752393</v>
+        <v>194.9648908669807</v>
       </c>
       <c r="H15" t="n">
-        <v>34.09082802752393</v>
+        <v>86.13251411737274</v>
       </c>
       <c r="I15" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J15" t="n">
-        <v>34.09082802752393</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K15" t="n">
-        <v>167.0544043749912</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="L15" t="n">
-        <v>167.0544043749912</v>
+        <v>376.3939552696686</v>
       </c>
       <c r="M15" t="n">
-        <v>579.955785623275</v>
+        <v>789.2953365179524</v>
       </c>
       <c r="N15" t="n">
-        <v>1001.829782463884</v>
+        <v>1211.169333358561</v>
       </c>
       <c r="O15" t="n">
-        <v>1336.009925071734</v>
+        <v>1545.349475966412</v>
       </c>
       <c r="P15" t="n">
-        <v>1587.792410277646</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q15" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R15" t="n">
         <v>1626.542617113319</v>
       </c>
       <c r="S15" t="n">
-        <v>1461.155418623773</v>
+        <v>1584.410521661634</v>
       </c>
       <c r="T15" t="n">
-        <v>1261.915027341409</v>
+        <v>1385.170130379269</v>
       </c>
       <c r="U15" t="n">
-        <v>1158.262394086333</v>
+        <v>1158.262394086332</v>
       </c>
       <c r="V15" t="n">
-        <v>1047.266253649794</v>
+        <v>924.0111506119331</v>
       </c>
       <c r="W15" t="n">
-        <v>794.7517619831277</v>
+        <v>794.7517619831272</v>
       </c>
       <c r="X15" t="n">
-        <v>711.479966426566</v>
+        <v>588.2248633887046</v>
       </c>
       <c r="Y15" t="n">
-        <v>505.7515306502164</v>
+        <v>505.751530650216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.5751708825952</v>
+        <v>265.5751708825943</v>
       </c>
       <c r="C16" t="n">
-        <v>219.8034527778273</v>
+        <v>219.8034527778265</v>
       </c>
       <c r="D16" t="n">
-        <v>192.5478825686989</v>
+        <v>192.547882568698</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3437692699948</v>
+        <v>167.3437692699941</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464369</v>
+        <v>142.9634971464362</v>
       </c>
       <c r="G16" t="n">
-        <v>96.87152021369387</v>
+        <v>96.87152021369364</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763182</v>
+        <v>58.97915110763165</v>
       </c>
       <c r="I16" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283533</v>
+        <v>83.45962932283538</v>
       </c>
       <c r="K16" t="n">
-        <v>216.7776820939541</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3994443472051</v>
+        <v>409.3994443472052</v>
       </c>
       <c r="M16" t="n">
-        <v>616.5181956441178</v>
+        <v>616.518195644118</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805966</v>
+        <v>826.7257971805968</v>
       </c>
       <c r="O16" t="n">
-        <v>1014.771769283488</v>
+        <v>1014.771769283489</v>
       </c>
       <c r="P16" t="n">
         <v>1169.890169899395</v>
@@ -5461,25 +5461,25 @@
         <v>1190.122104134152</v>
       </c>
       <c r="S16" t="n">
-        <v>1092.927789657317</v>
+        <v>1097.097773709961</v>
       </c>
       <c r="T16" t="n">
-        <v>990.7324839816429</v>
+        <v>990.7324839816416</v>
       </c>
       <c r="U16" t="n">
-        <v>825.0589013954286</v>
+        <v>825.0589013954273</v>
       </c>
       <c r="V16" t="n">
-        <v>692.8227407293105</v>
+        <v>692.8227407293091</v>
       </c>
       <c r="W16" t="n">
-        <v>527.095442870792</v>
+        <v>527.0954428707906</v>
       </c>
       <c r="X16" t="n">
-        <v>421.9259399164212</v>
+        <v>421.9259399164201</v>
       </c>
       <c r="Y16" t="n">
-        <v>324.2227865221928</v>
+        <v>324.2227865221918</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.9335608347652</v>
+        <v>964.9335608347653</v>
       </c>
       <c r="C17" t="n">
         <v>819.755406062422</v>
@@ -5498,7 +5498,7 @@
         <v>685.062466365174</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258158</v>
+        <v>523.588412525816</v>
       </c>
       <c r="F17" t="n">
         <v>337.6943306811511</v>
@@ -5507,25 +5507,25 @@
         <v>144.6943644627649</v>
       </c>
       <c r="H17" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I17" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777328</v>
+        <v>77.64171918777322</v>
       </c>
       <c r="K17" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646869</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482736</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M17" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909472</v>
       </c>
       <c r="N17" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O17" t="n">
         <v>1461.259986043749</v>
@@ -5534,16 +5534,16 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q17" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R17" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S17" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T17" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U17" t="n">
         <v>1676.07983065826</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.1104318785031</v>
+        <v>922.7244291552325</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3573168003202</v>
+        <v>749.9713140770498</v>
       </c>
       <c r="D18" t="n">
-        <v>473.7690101592641</v>
+        <v>602.3830074359937</v>
       </c>
       <c r="E18" t="n">
-        <v>316.1594811621188</v>
+        <v>444.7734784388484</v>
       </c>
       <c r="F18" t="n">
-        <v>171.2036911787356</v>
+        <v>299.8176884554653</v>
       </c>
       <c r="G18" t="n">
-        <v>34.09082802752393</v>
+        <v>162.7048253042536</v>
       </c>
       <c r="H18" t="n">
-        <v>34.09082802752393</v>
+        <v>53.87244855464557</v>
       </c>
       <c r="I18" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J18" t="n">
-        <v>34.09082802752393</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K18" t="n">
-        <v>34.09082802752393</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="L18" t="n">
-        <v>342.6732976662157</v>
+        <v>376.3939552696686</v>
       </c>
       <c r="M18" t="n">
-        <v>755.5746789144996</v>
+        <v>789.2953365179524</v>
       </c>
       <c r="N18" t="n">
-        <v>1118.578773562434</v>
+        <v>1211.169333358561</v>
       </c>
       <c r="O18" t="n">
-        <v>1452.758916170285</v>
+        <v>1545.349475966412</v>
       </c>
       <c r="P18" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q18" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R18" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S18" t="n">
-        <v>1704.541401376197</v>
+        <v>1539.15420288665</v>
       </c>
       <c r="T18" t="n">
-        <v>1704.541401376197</v>
+        <v>1539.15420288665</v>
       </c>
       <c r="U18" t="n">
-        <v>1703.147526148232</v>
+        <v>1537.760327658686</v>
       </c>
       <c r="V18" t="n">
-        <v>1625.922809037502</v>
+        <v>1529.022945249259</v>
       </c>
       <c r="W18" t="n">
-        <v>1373.408317370835</v>
+        <v>1502.022314647565</v>
       </c>
       <c r="X18" t="n">
-        <v>1166.881418776413</v>
+        <v>1295.495416053142</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.1529830000635</v>
+        <v>1089.766980276793</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
       <c r="C19" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
       <c r="D19" t="n">
-        <v>34.09082802752393</v>
+        <v>182.5500443640887</v>
       </c>
       <c r="E19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="F19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="G19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J19" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="K19" t="n">
-        <v>46.60655431123541</v>
+        <v>46.60655431123539</v>
       </c>
       <c r="L19" t="n">
         <v>118.425990077079</v>
       </c>
       <c r="M19" t="n">
-        <v>204.7424148865844</v>
+        <v>204.7424148865843</v>
       </c>
       <c r="N19" t="n">
         <v>294.1476899356558</v>
       </c>
       <c r="O19" t="n">
-        <v>361.3913355511402</v>
+        <v>361.3913355511401</v>
       </c>
       <c r="P19" t="n">
         <v>395.7074096796393</v>
@@ -5698,25 +5698,25 @@
         <v>395.7074096796393</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9688716855063</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="T19" t="n">
-        <v>193.8623399842988</v>
+        <v>391.6008779784318</v>
       </c>
       <c r="U19" t="n">
-        <v>130.447515425196</v>
+        <v>328.1860534193291</v>
       </c>
       <c r="V19" t="n">
-        <v>100.4701127861897</v>
+        <v>298.2086507803227</v>
       </c>
       <c r="W19" t="n">
-        <v>37.00157295478292</v>
+        <v>234.740110948916</v>
       </c>
       <c r="X19" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347651</v>
+        <v>964.9335608347653</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624221</v>
+        <v>819.7554060624219</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651741</v>
+        <v>685.0624663651739</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258159</v>
+        <v>523.5884125258158</v>
       </c>
       <c r="F20" t="n">
         <v>337.6943306811513</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6943644627649</v>
+        <v>144.6943644627654</v>
       </c>
       <c r="H20" t="n">
         <v>34.09082802752393</v>
@@ -5750,19 +5750,19 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777322</v>
       </c>
       <c r="K20" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646869</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909473</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O20" t="n">
         <v>1461.259986043749</v>
@@ -5771,16 +5771,16 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q20" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R20" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S20" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T20" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U20" t="n">
         <v>1676.07983065826</v>
@@ -5792,7 +5792,7 @@
         <v>1441.184988623484</v>
       </c>
       <c r="X20" t="n">
-        <v>1292.091173798386</v>
+        <v>1292.091173798387</v>
       </c>
       <c r="Y20" t="n">
         <v>1127.012033094434</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>807.7779612275237</v>
+        <v>980.5310763057066</v>
       </c>
       <c r="C21" t="n">
         <v>807.7779612275237</v>
@@ -5829,19 +5829,19 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J21" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="K21" t="n">
-        <v>252.0510736548812</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="L21" t="n">
-        <v>560.633543293573</v>
+        <v>167.0544043749911</v>
       </c>
       <c r="M21" t="n">
-        <v>973.5349245418568</v>
+        <v>579.9557856232749</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.009925071734</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O21" t="n">
         <v>1336.009925071734</v>
@@ -5850,31 +5850,31 @@
         <v>1587.792410277646</v>
       </c>
       <c r="Q21" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R21" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S21" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T21" t="n">
-        <v>1505.301010093832</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U21" t="n">
-        <v>1294.54369636859</v>
+        <v>1703.147526148232</v>
       </c>
       <c r="V21" t="n">
-        <v>1060.292452894191</v>
+        <v>1468.896282673833</v>
       </c>
       <c r="W21" t="n">
-        <v>807.7779612275237</v>
+        <v>1441.895652072139</v>
       </c>
       <c r="X21" t="n">
-        <v>807.7779612275237</v>
+        <v>1353.302063203617</v>
       </c>
       <c r="Y21" t="n">
-        <v>807.7779612275237</v>
+        <v>1147.573627427267</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="C22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="D22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="E22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="F22" t="n">
-        <v>84.19399086023827</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="G22" t="n">
-        <v>84.19399086023827</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="H22" t="n">
-        <v>84.19399086023827</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="I22" t="n">
         <v>34.09082802752393</v>
@@ -5911,7 +5911,7 @@
         <v>34.09082802752393</v>
       </c>
       <c r="K22" t="n">
-        <v>46.60655431123541</v>
+        <v>46.6065543112354</v>
       </c>
       <c r="L22" t="n">
         <v>118.425990077079</v>
@@ -5923,7 +5923,7 @@
         <v>294.1476899356558</v>
       </c>
       <c r="O22" t="n">
-        <v>361.3913355511402</v>
+        <v>361.3913355511401</v>
       </c>
       <c r="P22" t="n">
         <v>395.7074096796393</v>
@@ -5947,13 +5947,13 @@
         <v>298.2086507803227</v>
       </c>
       <c r="W22" t="n">
-        <v>234.740110948916</v>
+        <v>206.3486529253868</v>
       </c>
       <c r="X22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.829366021657</v>
+        <v>203.4379079981278</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347654</v>
+        <v>964.9335608347652</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624223</v>
+        <v>819.755406062422</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651743</v>
+        <v>685.062466365174</v>
       </c>
       <c r="E23" t="n">
-        <v>523.588412525816</v>
+        <v>523.5884125258154</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811513</v>
+        <v>337.6943306811508</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627649</v>
       </c>
       <c r="H23" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I23" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K23" t="n">
         <v>265.189808364687</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482734</v>
       </c>
       <c r="M23" t="n">
-        <v>881.7569750909472</v>
+        <v>881.7569750909473</v>
       </c>
       <c r="N23" t="n">
         <v>1203.53884361695</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>341.7146573129833</v>
+        <v>656.9975687272913</v>
       </c>
       <c r="C24" t="n">
-        <v>341.7146573129833</v>
+        <v>484.2444536491085</v>
       </c>
       <c r="D24" t="n">
-        <v>341.7146573129833</v>
+        <v>336.6561470080524</v>
       </c>
       <c r="E24" t="n">
-        <v>341.7146573129833</v>
+        <v>179.0466180109071</v>
       </c>
       <c r="F24" t="n">
-        <v>196.7588673296001</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="G24" t="n">
-        <v>196.7588673296001</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I24" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J24" t="n">
-        <v>67.81148563097689</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K24" t="n">
-        <v>252.0510736548812</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="L24" t="n">
-        <v>560.633543293573</v>
+        <v>376.3939552696686</v>
       </c>
       <c r="M24" t="n">
-        <v>973.5349245418568</v>
+        <v>789.2953365179524</v>
       </c>
       <c r="N24" t="n">
         <v>1001.829782463883</v>
@@ -6090,28 +6090,28 @@
         <v>1704.541401376196</v>
       </c>
       <c r="R24" t="n">
-        <v>1626.542617113319</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S24" t="n">
-        <v>1461.155418623773</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T24" t="n">
-        <v>1261.915027341409</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U24" t="n">
-        <v>1035.007291048472</v>
+        <v>1703.147526148232</v>
       </c>
       <c r="V24" t="n">
-        <v>800.7560475740725</v>
+        <v>1488.809945886291</v>
       </c>
       <c r="W24" t="n">
-        <v>548.2415559074058</v>
+        <v>1236.295454219624</v>
       </c>
       <c r="X24" t="n">
-        <v>341.7146573129833</v>
+        <v>1029.768555625201</v>
       </c>
       <c r="Y24" t="n">
-        <v>341.7146573129833</v>
+        <v>824.0401198488518</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
       <c r="C25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
       <c r="D25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
       <c r="E25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
       <c r="F25" t="n">
-        <v>195.2383001714468</v>
+        <v>203.4379079981278</v>
       </c>
       <c r="G25" t="n">
-        <v>195.2383001714468</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="K25" t="n">
-        <v>46.60655431123541</v>
+        <v>46.60655431123539</v>
       </c>
       <c r="L25" t="n">
         <v>118.425990077079</v>
@@ -6160,7 +6160,7 @@
         <v>294.1476899356558</v>
       </c>
       <c r="O25" t="n">
-        <v>361.3913355511402</v>
+        <v>361.3913355511401</v>
       </c>
       <c r="P25" t="n">
         <v>395.7074096796393</v>
@@ -6172,25 +6172,25 @@
         <v>395.7074096796393</v>
       </c>
       <c r="S25" t="n">
-        <v>359.1163438294291</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="T25" t="n">
-        <v>355.0098121282216</v>
+        <v>391.6008779784318</v>
       </c>
       <c r="U25" t="n">
-        <v>291.5949875691189</v>
+        <v>328.186053419329</v>
       </c>
       <c r="V25" t="n">
-        <v>261.6175849301125</v>
+        <v>298.2086507803227</v>
       </c>
       <c r="W25" t="n">
-        <v>198.1490450987058</v>
+        <v>234.7401109489159</v>
       </c>
       <c r="X25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
       <c r="Y25" t="n">
-        <v>195.2383001714468</v>
+        <v>231.8293660216569</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.640936362585</v>
+        <v>1523.640936362584</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.49598579705</v>
+        <v>1296.495985797049</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740589</v>
+        <v>836.395400674058</v>
       </c>
       <c r="F26" t="n">
-        <v>568.534523036202</v>
+        <v>568.5345230362011</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5677610246235</v>
+        <v>293.5677610246225</v>
       </c>
       <c r="H26" t="n">
         <v>100.99742879619</v>
@@ -6230,7 +6230,7 @@
         <v>570.2135754728911</v>
       </c>
       <c r="L26" t="n">
-        <v>995.5431210293491</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M26" t="n">
         <v>1468.161699544895</v>
@@ -6242,34 +6242,34 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P26" t="n">
-        <v>2652.756385820219</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q26" t="n">
-        <v>2853.708040521631</v>
+        <v>2853.708040521632</v>
       </c>
       <c r="R26" t="n">
         <v>2886.681889499215</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.393615466868</v>
       </c>
       <c r="T26" t="n">
         <v>2755.049551663169</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512185</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.79275153088</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.73214091259</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.686204415446</v>
+        <v>1767.686204415445</v>
       </c>
     </row>
     <row r="27">
@@ -6330,7 +6330,7 @@
         <v>2139.117737403582</v>
       </c>
       <c r="S27" t="n">
-        <v>2117.277604185816</v>
+        <v>2117.277604185817</v>
       </c>
       <c r="T27" t="n">
         <v>1973.611735416087</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1742450076188</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C28" t="n">
-        <v>121.6944891367705</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D28" t="n">
-        <v>114.7308811615616</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E28" t="n">
-        <v>109.818730096777</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7304202071387</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G28" t="n">
-        <v>79.93040550831518</v>
+        <v>79.93040550831513</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617266</v>
+        <v>62.32999863617264</v>
       </c>
       <c r="I28" t="n">
         <v>57.7336377899843</v>
       </c>
       <c r="J28" t="n">
-        <v>57.7336377899843</v>
+        <v>126.9905912707602</v>
       </c>
       <c r="K28" t="n">
-        <v>70.24936407369577</v>
+        <v>280.1967962273436</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0687998395394</v>
+        <v>352.0162319931872</v>
       </c>
       <c r="M28" t="n">
-        <v>240.1069849746533</v>
+        <v>579.0231354755645</v>
       </c>
       <c r="N28" t="n">
-        <v>470.2027386965966</v>
+        <v>668.4284105246359</v>
       </c>
       <c r="O28" t="n">
-        <v>678.1368629849529</v>
+        <v>735.6720561401203</v>
       </c>
       <c r="P28" t="n">
-        <v>853.143415786324</v>
+        <v>853.1434157863235</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.4332876408793</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R28" t="n">
-        <v>913.5554644404649</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S28" t="n">
-        <v>836.6531121975494</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T28" t="n">
-        <v>750.5797847031496</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U28" t="n">
-        <v>605.1981643508545</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V28" t="n">
-        <v>493.2539659186559</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W28" t="n">
-        <v>347.8186302940568</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X28" t="n">
-        <v>262.9410895736056</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5298984132968</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.640936362584</v>
+        <v>1523.640936362585</v>
       </c>
       <c r="C29" t="n">
         <v>1296.495985797049</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.836250306608</v>
+        <v>1079.836250306609</v>
       </c>
       <c r="E29" t="n">
-        <v>836.395400674058</v>
+        <v>836.3954006740588</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5345230362011</v>
+        <v>568.5345230362019</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5677610246227</v>
+        <v>293.5677610246235</v>
       </c>
       <c r="H29" t="n">
         <v>100.9974287961899</v>
       </c>
       <c r="I29" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231056</v>
+        <v>241.9750076231054</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2135754728913</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293498</v>
+        <v>995.5431210293491</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.161699544896</v>
+        <v>1468.161699544895</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.634046743771</v>
+        <v>1930.63404674377</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.045667843442</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.756385820221</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q29" t="n">
         <v>2853.708040521632</v>
       </c>
       <c r="R29" t="n">
-        <v>2886.681889499214</v>
+        <v>2886.681889499215</v>
       </c>
       <c r="S29" t="n">
         <v>2834.393615466868</v>
@@ -6494,7 +6494,7 @@
         <v>2755.049551663169</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152041</v>
       </c>
       <c r="V29" t="n">
         <v>2456.316511512185</v>
@@ -6503,10 +6503,10 @@
         <v>2245.79275153088</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912591</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.686204415445</v>
+        <v>1767.686204415446</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>758.2286461673473</v>
+        <v>912.1599865206782</v>
       </c>
       <c r="C30" t="n">
-        <v>585.4755310891644</v>
+        <v>739.4068714424955</v>
       </c>
       <c r="D30" t="n">
-        <v>437.8872244481083</v>
+        <v>591.8185648014394</v>
       </c>
       <c r="E30" t="n">
-        <v>280.277695450963</v>
+        <v>434.2090358042941</v>
       </c>
       <c r="F30" t="n">
-        <v>135.3219054675799</v>
+        <v>289.2532458209109</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3219054675799</v>
+        <v>166.5660145395923</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3219054675799</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="I30" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J30" t="n">
-        <v>91.45429539343725</v>
+        <v>91.45429539343726</v>
       </c>
       <c r="K30" t="n">
         <v>275.6938834173416</v>
@@ -6567,25 +6567,25 @@
         <v>2139.117737403582</v>
       </c>
       <c r="S30" t="n">
-        <v>2106.893329104267</v>
+        <v>2117.277604185817</v>
       </c>
       <c r="T30" t="n">
-        <v>1907.652937821902</v>
+        <v>2061.584278175233</v>
       </c>
       <c r="U30" t="n">
-        <v>1680.745201528965</v>
+        <v>1978.223607154076</v>
       </c>
       <c r="V30" t="n">
-        <v>1446.493958054566</v>
+        <v>1743.972363679677</v>
       </c>
       <c r="W30" t="n">
-        <v>1193.979466387899</v>
+        <v>1491.457872013011</v>
       </c>
       <c r="X30" t="n">
-        <v>1130.999633065257</v>
+        <v>1284.930973418588</v>
       </c>
       <c r="Y30" t="n">
-        <v>925.2711972889077</v>
+        <v>1079.202537642239</v>
       </c>
     </row>
     <row r="31">
@@ -6598,7 +6598,7 @@
         <v>147.1742450076184</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367701</v>
+        <v>121.6944891367702</v>
       </c>
       <c r="D31" t="n">
         <v>114.7308811615613</v>
@@ -6610,34 +6610,34 @@
         <v>105.7304202071385</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831505</v>
+        <v>79.93040550831508</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32999863617259</v>
+        <v>62.32999863617261</v>
       </c>
       <c r="I31" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9905912707603</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="K31" t="n">
-        <v>139.5063175544718</v>
+        <v>70.24936407369577</v>
       </c>
       <c r="L31" t="n">
-        <v>211.3257533203154</v>
+        <v>142.0687998395393</v>
       </c>
       <c r="M31" t="n">
-        <v>438.3326568026927</v>
+        <v>369.0757033219166</v>
       </c>
       <c r="N31" t="n">
-        <v>668.4284105246361</v>
+        <v>470.2027386965954</v>
       </c>
       <c r="O31" t="n">
-        <v>876.3625348129924</v>
+        <v>678.1368629849517</v>
       </c>
       <c r="P31" t="n">
-        <v>910.6786089414916</v>
+        <v>853.1434157863229</v>
       </c>
       <c r="Q31" t="n">
         <v>934.4332876408782</v>
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.640936362585</v>
+        <v>1523.640936362583</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.495985797048</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740585</v>
+        <v>836.3954006740573</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362016</v>
+        <v>568.5345230362004</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5677610246232</v>
+        <v>293.5677610246225</v>
       </c>
       <c r="H32" t="n">
         <v>100.99742879619</v>
       </c>
       <c r="I32" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9750076231048</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2135754728904</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293489</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M32" t="n">
         <v>1468.161699544895</v>
@@ -6719,10 +6719,10 @@
         <v>2652.756385820219</v>
       </c>
       <c r="Q32" t="n">
-        <v>2853.708040521632</v>
+        <v>2853.708040521631</v>
       </c>
       <c r="R32" t="n">
-        <v>2886.681889499214</v>
+        <v>2886.681889499215</v>
       </c>
       <c r="S32" t="n">
         <v>2834.393615466868</v>
@@ -6731,19 +6731,19 @@
         <v>2755.049551663169</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V32" t="n">
         <v>2456.316511512184</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.792751530879</v>
+        <v>2245.792751530878</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912589</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.686204415446</v>
+        <v>1767.686204415444</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>690.6141369860197</v>
+        <v>537.0933132179714</v>
       </c>
       <c r="C33" t="n">
-        <v>517.8610219078369</v>
+        <v>364.3401981397886</v>
       </c>
       <c r="D33" t="n">
-        <v>370.2727152667807</v>
+        <v>216.7518914987324</v>
       </c>
       <c r="E33" t="n">
-        <v>212.6631862696354</v>
+        <v>59.14236250158714</v>
       </c>
       <c r="F33" t="n">
-        <v>67.70739628625228</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="G33" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="H33" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="I33" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J33" t="n">
-        <v>91.45429539343725</v>
+        <v>91.45429539343726</v>
       </c>
       <c r="K33" t="n">
         <v>275.6938834173416</v>
@@ -6804,25 +6804,25 @@
         <v>2061.118953140705</v>
       </c>
       <c r="S33" t="n">
-        <v>2039.278819922939</v>
+        <v>1895.731754651159</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.585493912355</v>
+        <v>1696.491363368795</v>
       </c>
       <c r="U33" t="n">
-        <v>1756.677757619418</v>
+        <v>1603.15693385137</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.426514145019</v>
+        <v>1368.905690376971</v>
       </c>
       <c r="W33" t="n">
-        <v>1269.912022478352</v>
+        <v>1116.391198710304</v>
       </c>
       <c r="X33" t="n">
-        <v>1063.38512388393</v>
+        <v>909.8643001158814</v>
       </c>
       <c r="Y33" t="n">
-        <v>857.6566881075802</v>
+        <v>704.1358643395318</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076184</v>
+        <v>147.174245007619</v>
       </c>
       <c r="C34" t="n">
-        <v>121.6944891367701</v>
+        <v>121.6944891367707</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615613</v>
+        <v>114.7308811615617</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967768</v>
+        <v>109.8187300967772</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071385</v>
+        <v>105.7304202071388</v>
       </c>
       <c r="G34" t="n">
-        <v>79.93040550831505</v>
+        <v>79.93040550831525</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617259</v>
+        <v>62.3299986361727</v>
       </c>
       <c r="I34" t="n">
-        <v>57.73363778998429</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J34" t="n">
-        <v>57.73363778998429</v>
+        <v>126.9905912707602</v>
       </c>
       <c r="K34" t="n">
-        <v>70.24936407369576</v>
+        <v>280.1967962273435</v>
       </c>
       <c r="L34" t="n">
-        <v>142.0687998395393</v>
+        <v>435.1715175108923</v>
       </c>
       <c r="M34" t="n">
-        <v>369.0757033219166</v>
+        <v>521.4879423203976</v>
       </c>
       <c r="N34" t="n">
-        <v>599.1714570438601</v>
+        <v>610.893217369469</v>
       </c>
       <c r="O34" t="n">
-        <v>807.1055813322164</v>
+        <v>678.1368629849534</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863229</v>
+        <v>853.1434157863245</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408782</v>
+        <v>934.4332876408797</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404639</v>
+        <v>913.5554644404652</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975485</v>
+        <v>836.6531121975497</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031488</v>
+        <v>750.5797847031499</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508539</v>
+        <v>605.1981643508549</v>
       </c>
       <c r="V34" t="n">
-        <v>493.2539659186553</v>
+        <v>493.2539659186563</v>
       </c>
       <c r="W34" t="n">
-        <v>347.8186302940563</v>
+        <v>347.8186302940572</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736052</v>
+        <v>262.941089573606</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132964</v>
+        <v>185.5298984132971</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834373</v>
+        <v>981.3122544834366</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677216011</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D35" t="n">
-        <v>696.19569603486</v>
+        <v>696.1956960348593</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0989102060087</v>
+        <v>532.098910206008</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718509</v>
+        <v>343.5820963718502</v>
       </c>
       <c r="G35" t="n">
         <v>147.9593981639706</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I35" t="n">
-        <v>66.20591361315445</v>
+        <v>39.68853405825144</v>
       </c>
       <c r="J35" t="n">
-        <v>109.7568047734038</v>
+        <v>83.23942521850074</v>
       </c>
       <c r="K35" t="n">
-        <v>297.3048939503175</v>
+        <v>270.7875143954145</v>
       </c>
       <c r="L35" t="n">
-        <v>581.9439608339039</v>
+        <v>555.4265812790009</v>
       </c>
       <c r="M35" t="n">
-        <v>913.8720606765778</v>
+        <v>887.3546811216748</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.653929202581</v>
+        <v>1209.136549647678</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.37507162938</v>
+        <v>1466.857692074477</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.395310933287</v>
+        <v>1649.877931378384</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.656486961827</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.656486961827</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="U35" t="n">
         <v>1705.572184254397</v>
@@ -6977,7 +6977,7 @@
         <v>1465.431878240635</v>
       </c>
       <c r="X35" t="n">
-        <v>1313.715331426045</v>
+        <v>1313.715331426044</v>
       </c>
       <c r="Y35" t="n">
         <v>1146.013458732599</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>657.639870439004</v>
+        <v>758.6293203564405</v>
       </c>
       <c r="C36" t="n">
-        <v>484.8867553608212</v>
+        <v>585.8762052782577</v>
       </c>
       <c r="D36" t="n">
-        <v>337.298448719765</v>
+        <v>438.2878986372015</v>
       </c>
       <c r="E36" t="n">
-        <v>179.6889197226197</v>
+        <v>280.6783696400562</v>
       </c>
       <c r="F36" t="n">
-        <v>34.73312973923654</v>
+        <v>280.6783696400562</v>
       </c>
       <c r="G36" t="n">
-        <v>34.73312973923654</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="J36" t="n">
-        <v>68.45378734268951</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="K36" t="n">
-        <v>252.6933753665938</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="L36" t="n">
-        <v>561.2758450052856</v>
+        <v>307.969997376728</v>
       </c>
       <c r="M36" t="n">
-        <v>604.1223875264619</v>
+        <v>720.8713786250119</v>
       </c>
       <c r="N36" t="n">
-        <v>1033.944868049514</v>
+        <v>1150.693859148064</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125010657365</v>
+        <v>1484.874001755915</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907495863277</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R36" t="n">
-        <v>1736.656486961827</v>
+        <v>1658.657702698949</v>
       </c>
       <c r="S36" t="n">
-        <v>1736.656486961827</v>
+        <v>1493.270504209403</v>
       </c>
       <c r="T36" t="n">
-        <v>1736.656486961827</v>
+        <v>1493.270504209403</v>
       </c>
       <c r="U36" t="n">
-        <v>1723.703491072403</v>
+        <v>1489.253896991946</v>
       </c>
       <c r="V36" t="n">
-        <v>1489.452247598003</v>
+        <v>1477.893782593026</v>
       </c>
       <c r="W36" t="n">
-        <v>1236.937755931337</v>
+        <v>1337.927205848773</v>
       </c>
       <c r="X36" t="n">
-        <v>1030.410857336914</v>
+        <v>1131.400307254351</v>
       </c>
       <c r="Y36" t="n">
-        <v>824.6824215605644</v>
+        <v>925.671871478001</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.73312973923654</v>
+        <v>219.3580077859038</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73312973923654</v>
+        <v>219.3580077859038</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73312973923654</v>
+        <v>68.84733453891451</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="K37" t="n">
-        <v>47.24885602294802</v>
+        <v>47.248856022948</v>
       </c>
       <c r="L37" t="n">
         <v>119.0682917887916</v>
@@ -7105,40 +7105,40 @@
         <v>205.3847165982969</v>
       </c>
       <c r="N37" t="n">
-        <v>294.7899916473684</v>
+        <v>294.7899916473683</v>
       </c>
       <c r="O37" t="n">
-        <v>362.0336372628528</v>
+        <v>362.0336372628527</v>
       </c>
       <c r="P37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="R37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="S37" t="n">
-        <v>211.7248333446844</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="T37" t="n">
-        <v>204.9955696539838</v>
+        <v>389.6204477006512</v>
       </c>
       <c r="U37" t="n">
-        <v>138.958013105388</v>
+        <v>323.5828911520553</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3578784768885</v>
+        <v>290.9827565235558</v>
       </c>
       <c r="W37" t="n">
-        <v>40.26660665598864</v>
+        <v>224.8914847026559</v>
       </c>
       <c r="X37" t="n">
-        <v>34.73312973923654</v>
+        <v>219.3580077859038</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.73312973923654</v>
+        <v>219.3580077859038</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834371</v>
+        <v>981.3122544834364</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677216008</v>
+        <v>833.5113677216</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348597</v>
+        <v>696.1956960348589</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060083</v>
+        <v>532.0989102060075</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718506</v>
+        <v>343.5820963718497</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73312973923654</v>
+        <v>39.68853405825144</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28402089948585</v>
+        <v>83.23942521850074</v>
       </c>
       <c r="K38" t="n">
-        <v>265.8321100763995</v>
+        <v>270.7875143954145</v>
       </c>
       <c r="L38" t="n">
-        <v>550.471176959986</v>
+        <v>555.4265812790009</v>
       </c>
       <c r="M38" t="n">
-        <v>882.3992768026599</v>
+        <v>887.3546811216748</v>
       </c>
       <c r="N38" t="n">
-        <v>1204.181145328663</v>
+        <v>1209.136549647678</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.902287755462</v>
+        <v>1466.857692074477</v>
       </c>
       <c r="P38" t="n">
-        <v>1644.922527059369</v>
+        <v>1649.877931378384</v>
       </c>
       <c r="Q38" t="n">
-        <v>1705.183703087909</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="R38" t="n">
         <v>1710.139107406924</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="U38" t="n">
         <v>1705.572184254397</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.611574418241</v>
+        <v>1596.61157441824</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.431878240635</v>
+        <v>1465.431878240634</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.715331426045</v>
+        <v>1313.715331426044</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.013458732599</v>
+        <v>1146.013458732598</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>365.6863457726142</v>
+        <v>657.639870439004</v>
       </c>
       <c r="C39" t="n">
-        <v>192.9332306944314</v>
+        <v>484.8867553608212</v>
       </c>
       <c r="D39" t="n">
-        <v>45.34492405337528</v>
+        <v>337.298448719765</v>
       </c>
       <c r="E39" t="n">
-        <v>45.34492405337528</v>
+        <v>179.6889197226197</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="J39" t="n">
-        <v>68.45378734268951</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="K39" t="n">
-        <v>252.6933753665938</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="L39" t="n">
-        <v>561.2758450052856</v>
+        <v>343.3155993779283</v>
       </c>
       <c r="M39" t="n">
-        <v>604.1223875264619</v>
+        <v>756.216980626212</v>
       </c>
       <c r="N39" t="n">
-        <v>1033.944868049514</v>
+        <v>1186.039461149264</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.125010657365</v>
+        <v>1520.219603757115</v>
       </c>
       <c r="P39" t="n">
-        <v>1619.907495863277</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.656486961827</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R39" t="n">
-        <v>1658.65770269895</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="S39" t="n">
-        <v>1658.65770269895</v>
+        <v>1727.72009828986</v>
       </c>
       <c r="T39" t="n">
-        <v>1658.65770269895</v>
+        <v>1727.72009828986</v>
       </c>
       <c r="U39" t="n">
-        <v>1431.749966406013</v>
+        <v>1723.703491072403</v>
       </c>
       <c r="V39" t="n">
-        <v>1197.498722931613</v>
+        <v>1489.452247598003</v>
       </c>
       <c r="W39" t="n">
-        <v>944.9842312649467</v>
+        <v>1236.937755931337</v>
       </c>
       <c r="X39" t="n">
-        <v>738.4573326705242</v>
+        <v>1030.410857336914</v>
       </c>
       <c r="Y39" t="n">
-        <v>532.7288968941747</v>
+        <v>824.6824215605644</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.73312973923654</v>
+        <v>203.7599508818652</v>
       </c>
       <c r="C40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="D40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="E40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73312973923654</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="K40" t="n">
-        <v>47.24885602294802</v>
+        <v>47.248856022948</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887916</v>
@@ -7342,40 +7342,40 @@
         <v>205.3847165982969</v>
       </c>
       <c r="N40" t="n">
-        <v>294.7899916473684</v>
+        <v>294.7899916473683</v>
       </c>
       <c r="O40" t="n">
-        <v>362.0336372628528</v>
+        <v>362.0336372628527</v>
       </c>
       <c r="P40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="R40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="S40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="T40" t="n">
-        <v>204.9955696539838</v>
+        <v>389.6204477006512</v>
       </c>
       <c r="U40" t="n">
-        <v>138.958013105388</v>
+        <v>323.5828911520553</v>
       </c>
       <c r="V40" t="n">
-        <v>106.3578784768885</v>
+        <v>290.9827565235558</v>
       </c>
       <c r="W40" t="n">
-        <v>40.26660665598864</v>
+        <v>224.8914847026559</v>
       </c>
       <c r="X40" t="n">
-        <v>34.73312973923654</v>
+        <v>203.7599508818652</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73312973923654</v>
+        <v>203.7599508818652</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.9683832523953</v>
+        <v>975.9683832523949</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5969217943016</v>
+        <v>811.5969217943012</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940978</v>
+        <v>620.4443461940974</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8717425885874</v>
+        <v>404.8717425885871</v>
       </c>
       <c r="G41" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="I41" t="n">
-        <v>50.75609222718955</v>
+        <v>50.7560922271896</v>
       </c>
       <c r="J41" t="n">
-        <v>94.30698338743886</v>
+        <v>192.5003360663591</v>
       </c>
       <c r="K41" t="n">
-        <v>281.8550725643526</v>
+        <v>571.9866412952476</v>
       </c>
       <c r="L41" t="n">
-        <v>566.494139447939</v>
+        <v>856.625708178834</v>
       </c>
       <c r="M41" t="n">
-        <v>898.4222392906129</v>
+        <v>1188.553808021508</v>
       </c>
       <c r="N41" t="n">
-        <v>1220.204107816616</v>
+        <v>1510.335676547511</v>
       </c>
       <c r="O41" t="n">
-        <v>1477.925250243415</v>
+        <v>1768.05681897431</v>
       </c>
       <c r="P41" t="n">
-        <v>1759.138842226241</v>
+        <v>1951.077058278217</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.338234306756</v>
+        <v>2011.338234306757</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T41" t="n">
         <v>2068.504030892089</v>
@@ -7448,10 +7448,10 @@
         <v>1874.347538805798</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856839</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.339716270897</v>
+        <v>1537.339716270896</v>
       </c>
       <c r="Y41" t="n">
         <v>1342.582053806098</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>799.1834117588687</v>
+        <v>365.4447039916841</v>
       </c>
       <c r="C42" t="n">
-        <v>799.1834117588687</v>
+        <v>365.4447039916841</v>
       </c>
       <c r="D42" t="n">
-        <v>668.0100229722125</v>
+        <v>365.4447039916841</v>
       </c>
       <c r="E42" t="n">
-        <v>510.4004939750672</v>
+        <v>365.4447039916841</v>
       </c>
       <c r="F42" t="n">
         <v>365.4447039916841</v>
@@ -7485,55 +7485,55 @@
         <v>119.4994640908644</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="J42" t="n">
-        <v>75.63185401672179</v>
+        <v>75.6318540167218</v>
       </c>
       <c r="K42" t="n">
-        <v>259.8714420406261</v>
+        <v>232.1359666772013</v>
       </c>
       <c r="L42" t="n">
-        <v>568.4539116793178</v>
+        <v>540.7184363158931</v>
       </c>
       <c r="M42" t="n">
-        <v>981.3552929276016</v>
+        <v>953.6198175641769</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.583677114554</v>
+        <v>1392.848201751129</v>
       </c>
       <c r="O42" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.02834435898</v>
       </c>
       <c r="P42" t="n">
-        <v>2006.546304928317</v>
+        <v>1978.810829564892</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="R42" t="n">
-        <v>2095.559820663441</v>
+        <v>2017.561036400565</v>
       </c>
       <c r="S42" t="n">
-        <v>2095.559820663441</v>
+        <v>1852.173837911019</v>
       </c>
       <c r="T42" t="n">
-        <v>2092.154768685204</v>
+        <v>1652.933446628655</v>
       </c>
       <c r="U42" t="n">
-        <v>1865.247032392267</v>
+        <v>1426.025710335718</v>
       </c>
       <c r="V42" t="n">
-        <v>1630.995788917868</v>
+        <v>1191.774466861318</v>
       </c>
       <c r="W42" t="n">
-        <v>1378.481297251201</v>
+        <v>939.2599751946517</v>
       </c>
       <c r="X42" t="n">
-        <v>1171.954398656779</v>
+        <v>732.7330766002292</v>
       </c>
       <c r="Y42" t="n">
-        <v>966.2259628804292</v>
+        <v>527.0046408238796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.30226256189507</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="C43" t="n">
-        <v>42.30226256189507</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="D43" t="n">
-        <v>42.30226256189507</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="E43" t="n">
-        <v>42.30226256189507</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="F43" t="n">
-        <v>42.30226256189507</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="G43" t="n">
-        <v>42.30226256189507</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="H43" t="n">
-        <v>42.30226256189507</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="I43" t="n">
-        <v>42.30226256189507</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="J43" t="n">
-        <v>42.30226256189507</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="K43" t="n">
-        <v>54.81798884560655</v>
+        <v>54.81798884560649</v>
       </c>
       <c r="L43" t="n">
         <v>126.6374246114501</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9538494209555</v>
+        <v>212.9538494209554</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3591244700269</v>
+        <v>302.3591244700268</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6027700855113</v>
+        <v>369.6027700855112</v>
       </c>
       <c r="P43" t="n">
-        <v>403.9188442140105</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.9188442140105</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140105</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034417</v>
+        <v>379.3047660034415</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413885</v>
+        <v>345.5197125413883</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4263662214401</v>
+        <v>252.42636622144</v>
       </c>
       <c r="V43" t="n">
-        <v>192.7704418215881</v>
+        <v>192.770441821588</v>
       </c>
       <c r="W43" t="n">
-        <v>99.62338022933565</v>
+        <v>99.62338022933562</v>
       </c>
       <c r="X43" t="n">
         <v>67.03411354123101</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>620.4443461940978</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885874</v>
+        <v>404.8717425885875</v>
       </c>
       <c r="G44" t="n">
         <v>182.1932546093554</v>
@@ -7646,7 +7646,7 @@
         <v>50.75609222718958</v>
       </c>
       <c r="J44" t="n">
-        <v>94.30698338743889</v>
+        <v>94.30698338743888</v>
       </c>
       <c r="K44" t="n">
         <v>281.8550725643526</v>
@@ -7655,10 +7655,10 @@
         <v>566.494139447939</v>
       </c>
       <c r="M44" t="n">
-        <v>1085.145195062141</v>
+        <v>996.6155919695319</v>
       </c>
       <c r="N44" t="n">
-        <v>1406.927063588144</v>
+        <v>1510.33567654751</v>
       </c>
       <c r="O44" t="n">
         <v>1768.056818974309</v>
@@ -7725,25 +7725,25 @@
         <v>41.91119641326883</v>
       </c>
       <c r="J45" t="n">
-        <v>75.63185401672179</v>
+        <v>47.89637865329613</v>
       </c>
       <c r="K45" t="n">
-        <v>259.8714420406261</v>
+        <v>232.1359666772004</v>
       </c>
       <c r="L45" t="n">
-        <v>568.4539116793178</v>
+        <v>540.7184363158922</v>
       </c>
       <c r="M45" t="n">
-        <v>981.3552929276016</v>
+        <v>953.6198175641759</v>
       </c>
       <c r="N45" t="n">
-        <v>1420.583677114554</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O45" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P45" t="n">
-        <v>2006.546304928317</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q45" t="n">
         <v>2095.559820663441</v>
@@ -7752,10 +7752,10 @@
         <v>2095.559820663441</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.559820663441</v>
+        <v>1961.194346017609</v>
       </c>
       <c r="T45" t="n">
-        <v>1957.789294039371</v>
+        <v>1761.953954735244</v>
       </c>
       <c r="U45" t="n">
         <v>1730.881557746435</v>
@@ -7792,40 +7792,40 @@
         <v>41.91119641326883</v>
       </c>
       <c r="F46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="G46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="H46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="I46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="J46" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189502</v>
       </c>
       <c r="K46" t="n">
-        <v>54.42692269698031</v>
+        <v>54.81798884560649</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2463584628239</v>
+        <v>126.6374246114501</v>
       </c>
       <c r="M46" t="n">
-        <v>212.5627832723292</v>
+        <v>212.9538494209554</v>
       </c>
       <c r="N46" t="n">
-        <v>301.9680583214007</v>
+        <v>302.3591244700268</v>
       </c>
       <c r="O46" t="n">
-        <v>369.2117039368851</v>
+        <v>369.6027700855112</v>
       </c>
       <c r="P46" t="n">
-        <v>403.5277780653843</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.5277780653843</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="R46" t="n">
         <v>403.9188442140103</v>
@@ -8766,10 +8766,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>105.8340074468336</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,13 +8778,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.9863851290695</v>
+        <v>387.4605671531834</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>76.87553675330048</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>100.5521054083635</v>
@@ -9003,28 +9003,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.07340644750704</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>223.2498953047615</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L15" t="n">
-        <v>73.97449483409071</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.9863851290695</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>237.6754614096485</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.07340644750703</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.94325252954206</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>421.5218374597015</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>237.6754614096485</v>
       </c>
       <c r="Q18" t="n">
         <v>100.5521054083635</v>
@@ -9477,22 +9477,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>208.2811376093101</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>420.987398956614</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O21" t="n">
-        <v>72.0611124439091</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9717,7 +9717,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,7 +9726,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>83.43169935272414</v>
+        <v>269.5322933162637</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>349.9713308315569</v>
       </c>
       <c r="M36" t="n">
-        <v>110.5404999089822</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.0151565254771</v>
+        <v>489.015156525477</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,28 +10899,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>110.5404999089822</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.0151565254771</v>
+        <v>489.015156525477</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>295.4986511014941</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11139,7 +11139,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>247.0282148128548</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.4647475650551</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737972</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.4647475650551</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.9625436714604</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.59936018186579</v>
+        <v>234.5821807471161</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478052</v>
+        <v>261.0954837478051</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.7336715177291</v>
+        <v>39.80742419275588</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.92019570772385</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.85443390360338</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.63966577724237</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V11" t="n">
-        <v>206.5106695150371</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.5075649930723</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.8390471236871</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.6645197437535</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.128284212116426</v>
       </c>
       <c r="F13" t="n">
-        <v>4.128284212117457</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.6938579839128</v>
+        <v>73.40447484132798</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>115.8049495538175</v>
+        <v>234.5821807471162</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730586</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.306137003043</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.7336715177292</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.92019570772391</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.85443390360344</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.63966577724244</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.5106695150371</v>
       </c>
       <c r="W14" t="n">
         <v>228.5075649930724</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.6645197437537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.12828421211722</v>
       </c>
       <c r="T16" t="n">
-        <v>4.128284212119098</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.666338797267272e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26323,37 +26323,37 @@
         <v>139707.9523740189</v>
       </c>
       <c r="F2" t="n">
-        <v>139707.9523740187</v>
+        <v>139707.9523740189</v>
       </c>
       <c r="G2" t="n">
-        <v>162783.8817229872</v>
+        <v>162783.8817229873</v>
       </c>
       <c r="H2" t="n">
-        <v>162783.8817229872</v>
+        <v>162783.8817229873</v>
       </c>
       <c r="I2" t="n">
         <v>162783.8817229872</v>
       </c>
       <c r="J2" t="n">
+        <v>162783.8817229874</v>
+      </c>
+      <c r="K2" t="n">
         <v>162783.8817229871</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>162783.8817229874</v>
+      </c>
+      <c r="M2" t="n">
         <v>162783.8817229873</v>
       </c>
-      <c r="L2" t="n">
-        <v>162783.8817229871</v>
-      </c>
-      <c r="M2" t="n">
-        <v>162783.8817229875</v>
-      </c>
       <c r="N2" t="n">
-        <v>162783.8817229874</v>
+        <v>162783.8817229873</v>
       </c>
       <c r="O2" t="n">
         <v>162783.8817229873</v>
       </c>
       <c r="P2" t="n">
-        <v>162783.8817229873</v>
+        <v>162783.8817229872</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747254</v>
+        <v>80988.93635747251</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110025.3308063923</v>
+        <v>110025.3308063924</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.93635747254</v>
+        <v>80988.93635747244</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.39977618633</v>
+        <v>97387.3997761863</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852313</v>
+        <v>32864.7653785233</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>350098.1444517555</v>
       </c>
       <c r="K4" t="n">
-        <v>350098.1444517555</v>
+        <v>350098.1444517556</v>
       </c>
       <c r="L4" t="n">
         <v>350098.1444517556</v>
@@ -26454,7 +26454,7 @@
         <v>351744.9734616746</v>
       </c>
       <c r="O4" t="n">
-        <v>349353.4290257164</v>
+        <v>349353.4290257165</v>
       </c>
       <c r="P4" t="n">
         <v>349353.4290257164</v>
@@ -26494,19 +26494,19 @@
         <v>58677.5251302165</v>
       </c>
       <c r="K5" t="n">
-        <v>58677.5251302165</v>
+        <v>58677.52513021651</v>
       </c>
       <c r="L5" t="n">
         <v>58677.5251302165</v>
       </c>
       <c r="M5" t="n">
-        <v>47800.81135056226</v>
+        <v>47800.81135056225</v>
       </c>
       <c r="N5" t="n">
-        <v>47800.81135056226</v>
+        <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444185</v>
       </c>
       <c r="P5" t="n">
         <v>51004.33436444183</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293206.9497356196</v>
+        <v>-293211.3573127677</v>
       </c>
       <c r="C6" t="n">
-        <v>-293206.9497356196</v>
+        <v>-293211.3573127676</v>
       </c>
       <c r="D6" t="n">
-        <v>-293206.9497356196</v>
+        <v>-293211.3573127676</v>
       </c>
       <c r="E6" t="n">
-        <v>-515663.9214393198</v>
+        <v>-515952.3705561818</v>
       </c>
       <c r="F6" t="n">
-        <v>-185676.715236328</v>
+        <v>-185965.16435319</v>
       </c>
       <c r="G6" t="n">
         <v>-317694.9847681446</v>
@@ -26543,13 +26543,13 @@
         <v>-236706.0484106721</v>
       </c>
       <c r="J6" t="n">
-        <v>-356017.1186653771</v>
+        <v>-356017.1186653769</v>
       </c>
       <c r="K6" t="n">
-        <v>-245991.7878589847</v>
+        <v>-245991.787858985</v>
       </c>
       <c r="L6" t="n">
-        <v>-326980.7242164575</v>
+        <v>-326980.7242164571</v>
       </c>
       <c r="M6" t="n">
         <v>-334149.3028654358</v>
@@ -26558,10 +26558,10 @@
         <v>-236761.9030892495</v>
       </c>
       <c r="O6" t="n">
-        <v>-270438.6470456941</v>
+        <v>-270438.6470456943</v>
       </c>
       <c r="P6" t="n">
-        <v>-237573.8816671709</v>
+        <v>-237573.8816671711</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>142.1115946190626</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="O2" t="n">
         <v>193.8769859110857</v>
@@ -26799,34 +26799,34 @@
         <v>426.1353503440491</v>
       </c>
       <c r="F4" t="n">
-        <v>426.1353503440491</v>
+        <v>426.135350344049</v>
       </c>
       <c r="G4" t="n">
-        <v>426.1353503440491</v>
+        <v>426.135350344049</v>
       </c>
       <c r="H4" t="n">
         <v>426.1353503440491</v>
       </c>
       <c r="I4" t="n">
-        <v>426.1353503440491</v>
+        <v>426.135350344049</v>
       </c>
       <c r="J4" t="n">
         <v>721.6704723748037</v>
       </c>
       <c r="K4" t="n">
-        <v>721.6704723748036</v>
+        <v>721.6704723748037</v>
       </c>
       <c r="L4" t="n">
-        <v>721.6704723748036</v>
+        <v>721.6704723748037</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404566</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404566</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658606</v>
       </c>
       <c r="P4" t="n">
         <v>523.8899551658603</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87542417222193</v>
+        <v>40.87542417222198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
-        <v>78.5506231656621</v>
+        <v>78.55062316566216</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858291</v>
+        <v>14.09019229858302</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.5351220307546</v>
+        <v>295.5351220307547</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6289997097023</v>
+        <v>138.628999709702</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540361</v>
+        <v>89.72583342540395</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87542417222193</v>
+        <v>40.87542417222198</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28172,22 +28172,22 @@
         <v>122.0225520074823</v>
       </c>
       <c r="D12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>122.0225520074823</v>
       </c>
       <c r="F12" t="n">
-        <v>122.0225520074823</v>
+        <v>25.29111577186856</v>
       </c>
       <c r="G12" t="n">
-        <v>115.305038365765</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>122.0225520074823</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
     </row>
     <row r="13">
@@ -28406,10 +28406,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="D15" t="n">
-        <v>84.77978180390201</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="E15" t="n">
         <v>122.0225520074822</v>
@@ -28421,10 +28421,10 @@
         <v>122.0225520074822</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.8123850008196</v>
+        <v>25.29111577186928</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>122.0225520074822</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>122.0225520074822</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>122.0225520074822</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.8123850008196</v>
+        <v>57.22858067896917</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.2479873695406</v>
@@ -28700,10 +28700,10 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V18" t="n">
-        <v>155.4562611000325</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>100.2190380735267</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -28743,7 +28743,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J19" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R19" t="n">
         <v>162.7806395874728</v>
       </c>
       <c r="S19" t="n">
-        <v>22.48377072535712</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T19" t="n">
         <v>223.2587224543229</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
-        <v>15.98891834201754</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>116.7539766286416</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28968,19 +28968,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6536091708978</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>159.5359974224836</v>
       </c>
       <c r="I22" t="n">
-        <v>97.05986065240181</v>
+        <v>146.661991856789</v>
       </c>
       <c r="J22" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R22" t="n">
         <v>162.7806395874728</v>
@@ -29019,7 +29019,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="W22" t="n">
-        <v>223.2587224543229</v>
+        <v>195.1511790110289</v>
       </c>
       <c r="X22" t="n">
         <v>223.2587224543229</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H24" t="n">
-        <v>23.51507907387609</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>19.7145265803336</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29205,19 +29205,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>118.0514779665106</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6536091708978</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.5359974224836</v>
       </c>
       <c r="I25" t="n">
         <v>146.661991856789</v>
       </c>
       <c r="J25" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R25" t="n">
         <v>162.7806395874728</v>
       </c>
       <c r="S25" t="n">
-        <v>182.0197681478407</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
         <v>223.2587224543229</v>
@@ -29302,7 +29302,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="L26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190627</v>
       </c>
       <c r="M26" t="n">
         <v>142.1115946190625</v>
@@ -29405,7 +29405,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="T27" t="n">
-        <v>55.01877728750864</v>
+        <v>55.01877728750819</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>142.1115946190625</v>
       </c>
       <c r="J28" t="n">
-        <v>72.15507595161208</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>11.84016194505918</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N28" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1115946190625</v>
+        <v>83.99523789667082</v>
       </c>
       <c r="Q28" t="n">
         <v>142.1115946190625</v>
@@ -29554,7 +29554,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1115946190614</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R29" t="n">
         <v>142.1115946190626</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7417345196995</v>
+        <v>14.2813755511941</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,13 +29639,13 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S30" t="n">
-        <v>131.8311622883281</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="J31" t="n">
-        <v>142.1115946190626</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29703,16 +29703,16 @@
         <v>142.1115946190626</v>
       </c>
       <c r="N31" t="n">
-        <v>142.1115946190626</v>
+        <v>11.84016194505791</v>
       </c>
       <c r="O31" t="n">
         <v>142.1115946190626</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.99523789666998</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R31" t="n">
         <v>142.1115946190626</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190635</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="33">
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G33" t="n">
-        <v>125.8677136083942</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H33" t="n">
         <v>107.7440529821119</v>
@@ -29876,13 +29876,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>132.2375737077571</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J34" t="n">
-        <v>72.15507595161208</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>83.99523789667192</v>
       </c>
       <c r="M34" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>11.84016194505787</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="C35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="D35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="E35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="F35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="G35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="H35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="I35" t="n">
-        <v>216.7334384969414</v>
+        <v>189.948206623302</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8769859110857</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="X35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
     </row>
     <row r="36">
@@ -30074,13 +30074,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>76.8123850008196</v>
@@ -30110,22 +30110,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
-        <v>211.8151929994775</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>111.4224357731898</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30165,7 +30165,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J37" t="n">
-        <v>72.15507595161208</v>
+        <v>38.3820131999309</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,28 +30186,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R37" t="n">
         <v>162.7806395874728</v>
       </c>
       <c r="S37" t="n">
-        <v>35.46629407334791</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T37" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V37" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="X37" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="C38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="D38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="E38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="F38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="G38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="H38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9427477152061</v>
+        <v>189.948206623302</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>113.8101353679844</v>
+        <v>108.8046764598881</v>
       </c>
       <c r="S38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="X38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
     </row>
     <row r="39">
@@ -30308,10 +30308,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.0005557125519</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.7417345196995</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333265046506</v>
+        <v>154.8863017194039</v>
       </c>
       <c r="T39" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30402,7 +30402,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J40" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R40" t="n">
         <v>162.7806395874728</v>
@@ -30432,19 +30432,19 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T40" t="n">
-        <v>37.88358851852377</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W40" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6622177847247</v>
+        <v>205.2201414497264</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30481,10 +30481,10 @@
         <v>193.8769859110857</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>99.18520472618201</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>99.18520472618073</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>193.8769859110857</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5.427788146471244</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>16.25076867585591</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.4787078024275</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6536091708978</v>
+        <v>168.0486254826414</v>
       </c>
       <c r="H43" t="n">
         <v>159.5359974224836</v>
@@ -30639,7 +30639,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J43" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R43" t="n">
         <v>162.7806395874728</v>
@@ -30727,13 +30727,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>188.6090462338665</v>
+        <v>99.18520472618081</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="O44" t="n">
-        <v>104.4531444033999</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7333265046506</v>
+        <v>30.7115066052763</v>
       </c>
       <c r="T45" t="n">
-        <v>60.8551660117115</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>146.5540377215481</v>
       </c>
       <c r="G46" t="n">
         <v>167.6536091708978</v>
@@ -30876,7 +30876,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J46" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R46" t="n">
-        <v>163.1756558992163</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S46" t="n">
         <v>193.8769859110857</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H11" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I11" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J11" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K11" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L11" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M11" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N11" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O11" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P11" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R11" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S11" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T11" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U11" t="n">
         <v>0.04208611146445571</v>
@@ -31835,43 +31835,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I12" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J12" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L12" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N12" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O12" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P12" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R12" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S12" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T12" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I13" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J13" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K13" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L13" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M13" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N13" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O13" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P13" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R13" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S13" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T13" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H14" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I14" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J14" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L14" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M14" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O14" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R14" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S14" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T14" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U14" t="n">
         <v>0.04208611146445571</v>
@@ -32072,43 +32072,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I15" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J15" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N15" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O15" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P15" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R15" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T15" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H16" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J16" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K16" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L16" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N16" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O16" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P16" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R16" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S16" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T16" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H17" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J17" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K17" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L17" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M17" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N17" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O17" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P17" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R17" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S17" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T17" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H18" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I18" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J18" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L18" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N18" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O18" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P18" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R18" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S18" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T18" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H19" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I19" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J19" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K19" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L19" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M19" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N19" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O19" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P19" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R19" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S19" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T19" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H20" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I20" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J20" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K20" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L20" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M20" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N20" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O20" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P20" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R20" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S20" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T20" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U20" t="n">
         <v>0.04208611146445571</v>
@@ -32546,43 +32546,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I21" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J21" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K21" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L21" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N21" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O21" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P21" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R21" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S21" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T21" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H22" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I22" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J22" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K22" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L22" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M22" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N22" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O22" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P22" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R22" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S22" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T22" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H23" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I23" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J23" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M23" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O23" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R23" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S23" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T23" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U23" t="n">
         <v>0.04208611146445571</v>
@@ -32783,43 +32783,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J24" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K24" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N24" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P24" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R24" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T24" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H25" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I25" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J25" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K25" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L25" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M25" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N25" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P25" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R25" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T25" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H26" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I26" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J26" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M26" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O26" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R26" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S26" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T26" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U26" t="n">
         <v>0.04208611146445571</v>
@@ -33020,43 +33020,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J27" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K27" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N27" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P27" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R27" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T27" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H28" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I28" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J28" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K28" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L28" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M28" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N28" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P28" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R28" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T28" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H29" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I29" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J29" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M29" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O29" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R29" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S29" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T29" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U29" t="n">
         <v>0.04208611146445571</v>
@@ -33257,43 +33257,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J30" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K30" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N30" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P30" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R30" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T30" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H31" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I31" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J31" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K31" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L31" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M31" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N31" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P31" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R31" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T31" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H32" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I32" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J32" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M32" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O32" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R32" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S32" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T32" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U32" t="n">
         <v>0.04208611146445571</v>
@@ -33494,43 +33494,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J33" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N33" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P33" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R33" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T33" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H34" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I34" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J34" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K34" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L34" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M34" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N34" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P34" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R34" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T34" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H35" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I35" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J35" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M35" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O35" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R35" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S35" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T35" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U35" t="n">
         <v>0.04208611146445571</v>
@@ -33731,43 +33731,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J36" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N36" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P36" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R36" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T36" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H37" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I37" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J37" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K37" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L37" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M37" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N37" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P37" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R37" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T37" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H38" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I38" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J38" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K38" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L38" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M38" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N38" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O38" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P38" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R38" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S38" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T38" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U38" t="n">
         <v>0.04208611146445571</v>
@@ -33968,43 +33968,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I39" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J39" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K39" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L39" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N39" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O39" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P39" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R39" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S39" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T39" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H40" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I40" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J40" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K40" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L40" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M40" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N40" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O40" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P40" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R40" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S40" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T40" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H41" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I41" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J41" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M41" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N41" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O41" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P41" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R41" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S41" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U41" t="n">
         <v>0.04208611146445571</v>
@@ -34205,43 +34205,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J42" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N42" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O42" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R42" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T42" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J43" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K43" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L43" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M43" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N43" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P43" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R43" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T43" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H44" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I44" t="n">
         <v>20.28156015291788</v>
       </c>
       <c r="J44" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M44" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O44" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04614624098899</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S44" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U44" t="n">
         <v>0.04208611146445571</v>
@@ -34442,43 +34442,43 @@
         <v>2.71846254002087</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J45" t="n">
         <v>26.59327955249299</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N45" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O45" t="n">
-        <v>66.97022588942421</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R45" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T45" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>0.2359797592102808</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I46" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J46" t="n">
         <v>16.68376897616685</v>
       </c>
       <c r="K46" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L46" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M46" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N46" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O46" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P46" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R46" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S46" t="n">
-        <v>4.112483621873711</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T46" t="n">
         <v>1.008277152989381</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K11" t="n">
         <v>189.4425143201149</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8.760600999326591</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K12" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>311.6994642815068</v>
@@ -35498,13 +35498,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.1353503440491</v>
+        <v>332.609532368163</v>
       </c>
       <c r="O12" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86747605587018</v>
+        <v>49.8674760558702</v>
       </c>
       <c r="K13" t="n">
         <v>134.664699768807</v>
@@ -35583,10 +35583,10 @@
         <v>189.9454263665574</v>
       </c>
       <c r="P13" t="n">
-        <v>156.6852531473804</v>
+        <v>156.6852531473805</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.0219390596877</v>
+        <v>62.02193905968772</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K14" t="n">
         <v>189.4425143201149</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K15" t="n">
-        <v>134.3066427752194</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>311.6994642815068</v>
       </c>
       <c r="M15" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.1353503440491</v>
+        <v>426.135350344049</v>
       </c>
       <c r="O15" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P15" t="n">
-        <v>254.3257426322342</v>
+        <v>160.799924656348</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587009</v>
+        <v>49.86747605587014</v>
       </c>
       <c r="K16" t="n">
         <v>134.6646997688069</v>
       </c>
       <c r="L16" t="n">
-        <v>194.5674366194454</v>
+        <v>194.5674366194455</v>
       </c>
       <c r="M16" t="n">
         <v>209.2108598958714</v>
       </c>
       <c r="N16" t="n">
-        <v>212.3309106429079</v>
+        <v>212.330910642908</v>
       </c>
       <c r="O16" t="n">
         <v>189.9454263665573</v>
       </c>
       <c r="P16" t="n">
-        <v>156.6852531473803</v>
+        <v>156.6852531473804</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968761</v>
+        <v>62.02193905968766</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201149</v>
@@ -35890,19 +35890,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M17" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N17" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O17" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P17" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N18" t="n">
-        <v>366.6708026746812</v>
+        <v>426.135350344049</v>
       </c>
       <c r="O18" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3257426322342</v>
+        <v>160.799924656348</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L19" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M19" t="n">
-        <v>87.18830788838923</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N19" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O19" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P19" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176696</v>
       </c>
       <c r="K20" t="n">
         <v>189.4425143201149</v>
@@ -36130,7 +36130,7 @@
         <v>335.2809089319938</v>
       </c>
       <c r="N20" t="n">
-        <v>325.0321904303062</v>
+        <v>325.0321904303061</v>
       </c>
       <c r="O20" t="n">
         <v>260.3243862896958</v>
@@ -36139,7 +36139,7 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.86987477630319</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>311.6994642815068</v>
+        <v>134.3066427752194</v>
       </c>
       <c r="M21" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N21" t="n">
-        <v>366.1363641715936</v>
+        <v>426.1353503440491</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>337.5556996038896</v>
       </c>
       <c r="P21" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q21" t="n">
         <v>117.9282738369195</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L22" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M22" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N22" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O22" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P22" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K23" t="n">
         <v>189.4425143201149</v>
@@ -36376,7 +36376,7 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.86987477630319</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>311.6994642815068</v>
@@ -36446,13 +36446,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N24" t="n">
-        <v>28.58066456770376</v>
+        <v>214.6812585312433</v>
       </c>
       <c r="O24" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P24" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q24" t="n">
         <v>117.9282738369195</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L25" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M25" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N25" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O25" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P25" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6258035923821</v>
+        <v>429.6258035923823</v>
       </c>
       <c r="M26" t="n">
-        <v>477.3925035510563</v>
+        <v>477.3925035510564</v>
       </c>
       <c r="N26" t="n">
         <v>467.1437850493686</v>
       </c>
       <c r="O26" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P26" t="n">
         <v>326.9805232088675</v>
@@ -36616,7 +36616,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917443</v>
+        <v>33.30691815917445</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K27" t="n">
         <v>186.1005939635397</v>
@@ -36683,13 +36683,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N27" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O27" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P27" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q27" t="n">
         <v>117.9282738369195</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.95651866745045</v>
       </c>
       <c r="K28" t="n">
-        <v>12.64214776132473</v>
+        <v>154.7537423803873</v>
       </c>
       <c r="L28" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M28" t="n">
-        <v>99.0284698334484</v>
+        <v>229.2999025074517</v>
       </c>
       <c r="N28" t="n">
-        <v>232.4199532544882</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589607</v>
+        <v>118.657939036569</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.11098167126795</v>
+        <v>82.11098167126798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1023937708296</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K29" t="n">
         <v>331.5541089391775</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M29" t="n">
         <v>477.3925035510564</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1437850493687</v>
+        <v>467.1437850493686</v>
       </c>
       <c r="O29" t="n">
         <v>402.4359809087584</v>
@@ -36850,10 +36850,10 @@
         <v>326.9805232088676</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.9814693953646</v>
+        <v>202.9814693953658</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30691815917449</v>
+        <v>33.30691815917447</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K30" t="n">
         <v>186.1005939635397</v>
@@ -36920,13 +36920,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O30" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P30" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q30" t="n">
         <v>117.9282738369195</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.9565186674505</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L31" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M31" t="n">
         <v>229.2999025074518</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4199532544883</v>
+        <v>102.1485205804836</v>
       </c>
       <c r="O31" t="n">
         <v>210.0344689781377</v>
       </c>
       <c r="P31" t="n">
-        <v>34.66270113989816</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.99462494887541</v>
+        <v>82.11098167126801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1023937708296</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5541089391775</v>
+        <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M32" t="n">
-        <v>477.3925035510564</v>
+        <v>477.3925035510563</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1437850493687</v>
+        <v>467.1437850493686</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9805232088676</v>
+        <v>326.9805232088675</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953658</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30691815917449</v>
+        <v>33.30691815917541</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K33" t="n">
         <v>186.1005939635397</v>
@@ -37157,13 +37157,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O33" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P33" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9282738369195</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>69.9565186674504</v>
       </c>
       <c r="K34" t="n">
-        <v>12.64214776132473</v>
+        <v>154.7537423803872</v>
       </c>
       <c r="L34" t="n">
-        <v>72.54488461196323</v>
+        <v>156.5401225086351</v>
       </c>
       <c r="M34" t="n">
-        <v>229.2999025074518</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4199532544883</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P34" t="n">
-        <v>46.50286308495603</v>
+        <v>176.7742957589606</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126801</v>
+        <v>82.11098167126792</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.79069078173526</v>
+        <v>5.005458908095869</v>
       </c>
       <c r="J35" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K35" t="n">
         <v>189.4425143201149</v>
@@ -37324,13 +37324,13 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.86987477630319</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.78523187363898</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>311.6994642815068</v>
+        <v>275.9968359974662</v>
       </c>
       <c r="M36" t="n">
-        <v>43.27933587997604</v>
+        <v>417.0721022709938</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404566</v>
       </c>
       <c r="O36" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P36" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L37" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M37" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N37" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O37" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P37" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.005458908095869</v>
       </c>
       <c r="J38" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K38" t="n">
         <v>189.4425143201149</v>
@@ -37561,13 +37561,13 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.86987477630319</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R38" t="n">
-        <v>5.005458908096278</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.78523187363901</v>
+        <v>26.78523187363898</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.6994642815068</v>
       </c>
       <c r="M39" t="n">
-        <v>43.27933587997604</v>
+        <v>417.0721022709938</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404567</v>
+        <v>434.1641217404566</v>
       </c>
       <c r="O39" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P39" t="n">
-        <v>254.3257426322342</v>
+        <v>218.6231143481936</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L40" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M40" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N40" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O40" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P40" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.934238195879523</v>
+        <v>8.934238195879548</v>
       </c>
       <c r="J41" t="n">
-        <v>43.99079915176699</v>
+        <v>143.176003877949</v>
       </c>
       <c r="K41" t="n">
-        <v>189.4425143201149</v>
+        <v>383.3195002312005</v>
       </c>
       <c r="L41" t="n">
         <v>287.5142089733196</v>
@@ -37795,13 +37795,13 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P41" t="n">
-        <v>284.0541333159857</v>
+        <v>184.868928589805</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.7468606873888</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R41" t="n">
-        <v>85.07230945119757</v>
+        <v>85.07230945119758</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1005939635397</v>
+        <v>158.0849622833127</v>
       </c>
       <c r="L42" t="n">
         <v>311.6994642815068</v>
@@ -37868,16 +37868,16 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O42" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.91264215669158</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3950163117436809</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.3950163117436091</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L43" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M43" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N43" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O43" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P43" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.934238195879551</v>
+        <v>8.934238195879548</v>
       </c>
       <c r="J44" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K44" t="n">
         <v>189.4425143201149</v>
@@ -38023,22 +38023,22 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M44" t="n">
-        <v>523.8899551658603</v>
+        <v>434.4661136581747</v>
       </c>
       <c r="N44" t="n">
-        <v>325.0321904303061</v>
+        <v>518.9091763413918</v>
       </c>
       <c r="O44" t="n">
-        <v>364.7775306930957</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P44" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.86987477630319</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R44" t="n">
-        <v>85.0723094511976</v>
+        <v>85.07230945119758</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06127030651815</v>
+        <v>6.045638626290201</v>
       </c>
       <c r="K45" t="n">
         <v>186.1005939635397</v>
@@ -38105,16 +38105,16 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N45" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O45" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.91264215669158</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.3950163117436307</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L46" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M46" t="n">
-        <v>87.18830788838922</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N46" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O46" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P46" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3950163117435015</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
